--- a/TestData/logindata.xlsx
+++ b/TestData/logindata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38FE4D0-324D-446D-B509-F6503647C5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+  <si>
+    <t>${InvalidUsername}</t>
+  </si>
+  <si>
+    <t>${InvalidPassword}</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>${ValidUsername}</t>
+  </si>
+  <si>
+    <t>${ValidPassword}</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>invalid_email1@yourstore.com</t>
+  </si>
+  <si>
+    <t>invalid_email2@yourstore.com</t>
+  </si>
+  <si>
+    <t>valid_email1@yourstore.com</t>
+  </si>
+  <si>
+    <t>valid_email2@yourstore.com</t>
+  </si>
   <si>
     <t>${username}</t>
   </si>
@@ -24,47 +58,44 @@
     <t>${password}</t>
   </si>
   <si>
-    <t>admin@yourstore.com</t>
-  </si>
-  <si>
-    <t>admim</t>
-  </si>
-  <si>
-    <t>adnin</t>
-  </si>
-  <si>
-    <t>admin124</t>
-  </si>
-  <si>
-    <t>admin125</t>
-  </si>
-  <si>
-    <t>admin126</t>
-  </si>
-  <si>
-    <t>admin127</t>
-  </si>
-  <si>
-    <t>admin128</t>
-  </si>
-  <si>
-    <t>admin129</t>
-  </si>
-  <si>
-    <t>admin130</t>
-  </si>
-  <si>
-    <t>admin131</t>
-  </si>
-  <si>
-    <t>admin132</t>
+    <t>${Run_Indicator}</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Hello@1234</t>
+  </si>
+  <si>
+    <t>asdasdA</t>
+  </si>
+  <si>
+    <t>y1@yourstore.com</t>
+  </si>
+  <si>
+    <t>n1@yourstore.com</t>
+  </si>
+  <si>
+    <t>y2@klovercloud.co</t>
+  </si>
+  <si>
+    <t>n2@klovercloud</t>
+  </si>
+  <si>
+    <t>y3@klovercloud.co</t>
+  </si>
+  <si>
+    <t>n3@klovercloud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +111,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,8 +131,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -145,23 +188,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,14 +206,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -189,14 +227,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +275,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -306,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,146 +520,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5:A12" r:id="rId4" display="admin@yourstore.com"/>
+    <hyperlink ref="C5:C8" r:id="rId1" display="admin@yourstore.com" xr:uid="{AD64AAFD-47D2-4F4D-9AB5-222A7BE3F77B}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{0E3205B7-F967-41CC-8EF4-AF01DFD9B7B1}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{A9E4DE0C-DDE5-45AE-A00C-623A115164CD}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{44093CB7-9100-4266-A46A-732F664FB79E}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{AA44096B-A856-4E1C-8E91-0B41FC9F2609}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O11:O12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{87DDE9B2-B524-49EA-9BA2-6B950FD9AC82}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{432DAEB4-8E22-4430-8C81-C5CD2B444AB1}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{D521F217-FEB9-4912-9E5C-0DF3E8BDCE0E}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{E142561C-D6D0-4425-B8B1-AD01A8CE0E83}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{EFA012D4-0615-4053-B56E-248316C43634}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{4E79948E-5C6B-4326-B26B-1D24AB607447}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/logindata.xlsx
+++ b/TestData/logindata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38FE4D0-324D-446D-B509-F6503647C5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC3CFA3-06FD-451A-8BB6-DCD5EF99B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4765" yWindow="3665" windowWidth="18851" windowHeight="9766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>${InvalidUsername}</t>
   </si>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O11:O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -697,12 +697,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{255A209F-014C-4D13-AEE7-5EEF2D833839}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{712D70BE-1851-4C37-8C24-578C5D3B0CC5}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{F7E1FE2B-9F2A-4193-AAD3-25DCF433DA89}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{062CCDE7-2299-4119-AFC1-5F8D94E54CF6}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{D03014C1-C6F6-49B0-AB9D-3547CA08090D}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{506D0595-541B-4B0A-95AD-FBDFF0A4FB8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>